--- a/data/trans_camb/IP19C06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,55</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,42</t>
+          <t>0,0; 10,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0,0; 9,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,51</t>
+          <t>0,0; 6,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,77</t>
+          <t>-0,21; 1,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,0</t>
+          <t>-1,21; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,37</t>
+          <t>-0,43; 1,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,15</t>
+          <t>0,5; 3,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,84</t>
+          <t>0,16; 1,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,92</t>
+          <t>0,31; 1,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,8</t>
+          <t>-0,11; 0,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,05</t>
+          <t>-0,04; 1,02</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,84</t>
+          <t>-2,93; 1,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,0</t>
+          <t>-6,11; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,29</t>
+          <t>-3,44; 1,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,37</t>
+          <t>1,21; 7,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,9</t>
+          <t>-1,42; 0,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,0</t>
+          <t>-2,33; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,38</t>
+          <t>-0,41; 3,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,2</t>
+          <t>-0,49; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,38</t>
+          <t>-0,91; 0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,87</t>
+          <t>-0,63; 1,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,11</t>
+          <t>0,32; 2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,77</t>
+          <t>0,74; 2,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,17</t>
+          <t>0,09; 1,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,6</t>
+          <t>-0,25; 0,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,32</t>
+          <t>0,24; 1,42</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,8; —</t>
+          <t>-35,97; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,61; —</t>
+          <t>6,49; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -637,34 +637,34 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,49</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>1,39</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,71</t>
+          <t>0,0; 7,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,41</t>
+          <t>0,0; 6,22</t>
         </is>
       </c>
     </row>
@@ -743,27 +743,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,4</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,21</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,98</t>
+          <t>0,58; 3,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,0</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,15</t>
+          <t>0,16; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,11</t>
+          <t>-0,38; 1,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>-1,23; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,9</t>
+          <t>-0,43; 1,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,99</t>
+          <t>0,3; 2,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,82</t>
+          <t>-0,18; 0,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,02</t>
+          <t>-0,02; 1,18</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>187,89%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>59,09%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>323,75%</t>
+          <t>360,36%</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,05</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,95</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,3</t>
+          <t>1,18; 7,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 1,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,65</t>
+          <t>-2,87; 1,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,89</t>
+          <t>-1,43; 0,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>-2,66; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,04</t>
+          <t>-0,21; 3,4</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-4,95%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-31,96%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>292,81%</t>
+          <t>300,2%</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,15</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,25</t>
+          <t>0,32; 2,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,38</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,0</t>
+          <t>0,73; 2,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,04</t>
+          <t>-0,44; 1,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>-0,82; 0,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,84</t>
+          <t>-0,45; 1,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,34</t>
+          <t>0,11; 1,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,52</t>
+          <t>-0,24; 0,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,42</t>
+          <t>0,21; 1,42</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>80,15%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-43,6%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>20,86%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>420,66%</t>
+          <t>442,67%</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,97; —</t>
+          <t>-61,01; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,49; —</t>
+          <t>-8,7; —</t>
         </is>
       </c>
     </row>
